--- a/metryki_porownywanie/metryki.xlsx
+++ b/metryki_porownywanie/metryki.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidbrzakala/Python_RIS_nowy/Python_RIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidbrzakala/Python_RIS_nowy/Python_RIS/metryki_porownywanie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D048ADC-EC91-7042-8386-9D8DE80851D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029C381E-F52D-9A48-9A88-08AAE4BC99D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Przypadek_idealny" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="22">
   <si>
     <t>Pattern</t>
   </si>
@@ -483,14 +483,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66418B98-A566-1241-8A7F-C0F4C167C805}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="126.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2487,14 +2488,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CFAE75-F157-724D-A078-62EE8629F77D}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="126.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3187,6 +3191,1294 @@
         <v>2056320000</v>
       </c>
       <c r="G28">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2500</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>892500</v>
+      </c>
+      <c r="E39">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F39">
+        <v>2056320000</v>
+      </c>
+      <c r="G39">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>2500</v>
+      </c>
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>892500</v>
+      </c>
+      <c r="E40">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F40">
+        <v>2056320000</v>
+      </c>
+      <c r="G40">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>2500</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>892500</v>
+      </c>
+      <c r="E41">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F41">
+        <v>2056320000</v>
+      </c>
+      <c r="G41">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>2500</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>892500</v>
+      </c>
+      <c r="E42">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F42">
+        <v>2056320000</v>
+      </c>
+      <c r="G42">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>2500</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>892500</v>
+      </c>
+      <c r="E43">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F43">
+        <v>2056320000</v>
+      </c>
+      <c r="G43">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>2500</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>892500</v>
+      </c>
+      <c r="E44">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F44">
+        <v>2056320000</v>
+      </c>
+      <c r="G44">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>2500</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>892500</v>
+      </c>
+      <c r="E45">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F45">
+        <v>2056320000</v>
+      </c>
+      <c r="G45">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>2500</v>
+      </c>
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>892500</v>
+      </c>
+      <c r="E46">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F46">
+        <v>2056320000</v>
+      </c>
+      <c r="G46">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>2500</v>
+      </c>
+      <c r="C47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>892500</v>
+      </c>
+      <c r="E47">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F47">
+        <v>2056320000</v>
+      </c>
+      <c r="G47">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>2500</v>
+      </c>
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>892500</v>
+      </c>
+      <c r="E48">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F48">
+        <v>2056320000</v>
+      </c>
+      <c r="G48">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>2500</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>892500</v>
+      </c>
+      <c r="E49">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F49">
+        <v>2056320000</v>
+      </c>
+      <c r="G49">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>2500</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>892500</v>
+      </c>
+      <c r="E50">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F50">
+        <v>2056320000</v>
+      </c>
+      <c r="G50">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>2500</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>892500</v>
+      </c>
+      <c r="E51">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F51">
+        <v>2056320000</v>
+      </c>
+      <c r="G51">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>2500</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>892500</v>
+      </c>
+      <c r="E52">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F52">
+        <v>2056320000</v>
+      </c>
+      <c r="G52">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>2500</v>
+      </c>
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <v>892500</v>
+      </c>
+      <c r="E53">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F53">
+        <v>2056320000</v>
+      </c>
+      <c r="G53">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>2500</v>
+      </c>
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>892500</v>
+      </c>
+      <c r="E54">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F54">
+        <v>2056320000</v>
+      </c>
+      <c r="G54">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>17</v>
+      </c>
+      <c r="B55">
+        <v>2500</v>
+      </c>
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>892500</v>
+      </c>
+      <c r="E55">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F55">
+        <v>2056320000</v>
+      </c>
+      <c r="G55">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>18</v>
+      </c>
+      <c r="B56">
+        <v>2500</v>
+      </c>
+      <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>892500</v>
+      </c>
+      <c r="E56">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F56">
+        <v>2056320000</v>
+      </c>
+      <c r="G56">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <v>2500</v>
+      </c>
+      <c r="C57">
+        <v>50</v>
+      </c>
+      <c r="D57">
+        <v>892500</v>
+      </c>
+      <c r="E57">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F57">
+        <v>2056320000</v>
+      </c>
+      <c r="G57">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>20</v>
+      </c>
+      <c r="B58">
+        <v>2500</v>
+      </c>
+      <c r="C58">
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <v>892500</v>
+      </c>
+      <c r="E58">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F58">
+        <v>2056320000</v>
+      </c>
+      <c r="G58">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>21</v>
+      </c>
+      <c r="B59">
+        <v>2500</v>
+      </c>
+      <c r="C59">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>892500</v>
+      </c>
+      <c r="E59">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F59">
+        <v>2056320000</v>
+      </c>
+      <c r="G59">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>2500</v>
+      </c>
+      <c r="C60">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <v>892500</v>
+      </c>
+      <c r="E60">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F60">
+        <v>2056320000</v>
+      </c>
+      <c r="G60">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>2500</v>
+      </c>
+      <c r="C61">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>892500</v>
+      </c>
+      <c r="E61">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F61">
+        <v>2056320000</v>
+      </c>
+      <c r="G61">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>2500</v>
+      </c>
+      <c r="C62">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>892500</v>
+      </c>
+      <c r="E62">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F62">
+        <v>2056320000</v>
+      </c>
+      <c r="G62">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>25</v>
+      </c>
+      <c r="B63">
+        <v>2500</v>
+      </c>
+      <c r="C63">
+        <v>50</v>
+      </c>
+      <c r="D63">
+        <v>892500</v>
+      </c>
+      <c r="E63">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F63">
+        <v>2056320000</v>
+      </c>
+      <c r="G63">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>2500</v>
+      </c>
+      <c r="C64">
+        <v>50</v>
+      </c>
+      <c r="D64">
+        <v>892500</v>
+      </c>
+      <c r="E64">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F64">
+        <v>2056320000</v>
+      </c>
+      <c r="G64">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>27</v>
+      </c>
+      <c r="B65">
+        <v>2500</v>
+      </c>
+      <c r="C65">
+        <v>50</v>
+      </c>
+      <c r="D65">
+        <v>892500</v>
+      </c>
+      <c r="E65">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F65">
+        <v>2056320000</v>
+      </c>
+      <c r="G65">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>2500</v>
+      </c>
+      <c r="C70">
+        <v>50</v>
+      </c>
+      <c r="D70">
+        <v>892500</v>
+      </c>
+      <c r="E70">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F70">
+        <v>2056320000</v>
+      </c>
+      <c r="G70">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>2500</v>
+      </c>
+      <c r="C71">
+        <v>50</v>
+      </c>
+      <c r="D71">
+        <v>892500</v>
+      </c>
+      <c r="E71">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F71">
+        <v>2056320000</v>
+      </c>
+      <c r="G71">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>2500</v>
+      </c>
+      <c r="C72">
+        <v>50</v>
+      </c>
+      <c r="D72">
+        <v>892500</v>
+      </c>
+      <c r="E72">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F72">
+        <v>2056320000</v>
+      </c>
+      <c r="G72">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>2500</v>
+      </c>
+      <c r="C73">
+        <v>50</v>
+      </c>
+      <c r="D73">
+        <v>892500</v>
+      </c>
+      <c r="E73">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F73">
+        <v>2056320000</v>
+      </c>
+      <c r="G73">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>2500</v>
+      </c>
+      <c r="C74">
+        <v>50</v>
+      </c>
+      <c r="D74">
+        <v>892500</v>
+      </c>
+      <c r="E74">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F74">
+        <v>2056320000</v>
+      </c>
+      <c r="G74">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>2500</v>
+      </c>
+      <c r="C75">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>892500</v>
+      </c>
+      <c r="E75">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F75">
+        <v>2056320000</v>
+      </c>
+      <c r="G75">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>2500</v>
+      </c>
+      <c r="C76">
+        <v>50</v>
+      </c>
+      <c r="D76">
+        <v>892500</v>
+      </c>
+      <c r="E76">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F76">
+        <v>2056320000</v>
+      </c>
+      <c r="G76">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>2500</v>
+      </c>
+      <c r="C77">
+        <v>50</v>
+      </c>
+      <c r="D77">
+        <v>892500</v>
+      </c>
+      <c r="E77">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F77">
+        <v>2056320000</v>
+      </c>
+      <c r="G77">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>2500</v>
+      </c>
+      <c r="C78">
+        <v>50</v>
+      </c>
+      <c r="D78">
+        <v>892500</v>
+      </c>
+      <c r="E78">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F78">
+        <v>2056320000</v>
+      </c>
+      <c r="G78">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>10</v>
+      </c>
+      <c r="B79">
+        <v>2500</v>
+      </c>
+      <c r="C79">
+        <v>50</v>
+      </c>
+      <c r="D79">
+        <v>892500</v>
+      </c>
+      <c r="E79">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F79">
+        <v>2056320000</v>
+      </c>
+      <c r="G79">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>11</v>
+      </c>
+      <c r="B80">
+        <v>2500</v>
+      </c>
+      <c r="C80">
+        <v>50</v>
+      </c>
+      <c r="D80">
+        <v>892500</v>
+      </c>
+      <c r="E80">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F80">
+        <v>2056320000</v>
+      </c>
+      <c r="G80">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>12</v>
+      </c>
+      <c r="B81">
+        <v>2500</v>
+      </c>
+      <c r="C81">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>892500</v>
+      </c>
+      <c r="E81">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F81">
+        <v>2056320000</v>
+      </c>
+      <c r="G81">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>2500</v>
+      </c>
+      <c r="C82">
+        <v>50</v>
+      </c>
+      <c r="D82">
+        <v>892500</v>
+      </c>
+      <c r="E82">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F82">
+        <v>2056320000</v>
+      </c>
+      <c r="G82">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>14</v>
+      </c>
+      <c r="B83">
+        <v>2500</v>
+      </c>
+      <c r="C83">
+        <v>50</v>
+      </c>
+      <c r="D83">
+        <v>892500</v>
+      </c>
+      <c r="E83">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F83">
+        <v>2056320000</v>
+      </c>
+      <c r="G83">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>15</v>
+      </c>
+      <c r="B84">
+        <v>2500</v>
+      </c>
+      <c r="C84">
+        <v>50</v>
+      </c>
+      <c r="D84">
+        <v>892500</v>
+      </c>
+      <c r="E84">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F84">
+        <v>2056320000</v>
+      </c>
+      <c r="G84">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>16</v>
+      </c>
+      <c r="B85">
+        <v>2500</v>
+      </c>
+      <c r="C85">
+        <v>50</v>
+      </c>
+      <c r="D85">
+        <v>892500</v>
+      </c>
+      <c r="E85">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F85">
+        <v>2056320000</v>
+      </c>
+      <c r="G85">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>17</v>
+      </c>
+      <c r="B86">
+        <v>2500</v>
+      </c>
+      <c r="C86">
+        <v>50</v>
+      </c>
+      <c r="D86">
+        <v>892500</v>
+      </c>
+      <c r="E86">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F86">
+        <v>2056320000</v>
+      </c>
+      <c r="G86">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>18</v>
+      </c>
+      <c r="B87">
+        <v>2500</v>
+      </c>
+      <c r="C87">
+        <v>50</v>
+      </c>
+      <c r="D87">
+        <v>892500</v>
+      </c>
+      <c r="E87">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F87">
+        <v>2056320000</v>
+      </c>
+      <c r="G87">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>19</v>
+      </c>
+      <c r="B88">
+        <v>2500</v>
+      </c>
+      <c r="C88">
+        <v>50</v>
+      </c>
+      <c r="D88">
+        <v>892500</v>
+      </c>
+      <c r="E88">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F88">
+        <v>2056320000</v>
+      </c>
+      <c r="G88">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>20</v>
+      </c>
+      <c r="B89">
+        <v>2500</v>
+      </c>
+      <c r="C89">
+        <v>50</v>
+      </c>
+      <c r="D89">
+        <v>892500</v>
+      </c>
+      <c r="E89">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F89">
+        <v>2056320000</v>
+      </c>
+      <c r="G89">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>21</v>
+      </c>
+      <c r="B90">
+        <v>2500</v>
+      </c>
+      <c r="C90">
+        <v>50</v>
+      </c>
+      <c r="D90">
+        <v>892500</v>
+      </c>
+      <c r="E90">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F90">
+        <v>2056320000</v>
+      </c>
+      <c r="G90">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>22</v>
+      </c>
+      <c r="B91">
+        <v>2500</v>
+      </c>
+      <c r="C91">
+        <v>50</v>
+      </c>
+      <c r="D91">
+        <v>892500</v>
+      </c>
+      <c r="E91">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F91">
+        <v>2056320000</v>
+      </c>
+      <c r="G91">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>23</v>
+      </c>
+      <c r="B92">
+        <v>2500</v>
+      </c>
+      <c r="C92">
+        <v>50</v>
+      </c>
+      <c r="D92">
+        <v>892500</v>
+      </c>
+      <c r="E92">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F92">
+        <v>2056320000</v>
+      </c>
+      <c r="G92">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>24</v>
+      </c>
+      <c r="B93">
+        <v>2500</v>
+      </c>
+      <c r="C93">
+        <v>50</v>
+      </c>
+      <c r="D93">
+        <v>892500</v>
+      </c>
+      <c r="E93">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F93">
+        <v>2056320000</v>
+      </c>
+      <c r="G93">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>25</v>
+      </c>
+      <c r="B94">
+        <v>2500</v>
+      </c>
+      <c r="C94">
+        <v>50</v>
+      </c>
+      <c r="D94">
+        <v>892500</v>
+      </c>
+      <c r="E94">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F94">
+        <v>2056320000</v>
+      </c>
+      <c r="G94">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>26</v>
+      </c>
+      <c r="B95">
+        <v>2500</v>
+      </c>
+      <c r="C95">
+        <v>50</v>
+      </c>
+      <c r="D95">
+        <v>892500</v>
+      </c>
+      <c r="E95">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F95">
+        <v>2056320000</v>
+      </c>
+      <c r="G95">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>27</v>
+      </c>
+      <c r="B96">
+        <v>2500</v>
+      </c>
+      <c r="C96">
+        <v>50</v>
+      </c>
+      <c r="D96">
+        <v>892500</v>
+      </c>
+      <c r="E96">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="F96">
+        <v>2056320000</v>
+      </c>
+      <c r="G96">
         <v>2400</v>
       </c>
     </row>
@@ -3200,7 +4492,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4570,8 +5862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E704B58D-6420-1E42-86AD-D07BE8D3A93C}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/metryki_porownywanie/metryki.xlsx
+++ b/metryki_porownywanie/metryki.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidbrzakala/Python_RIS_nowy/Python_RIS/metryki_porownywanie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brzak\Documents\GIT_Repository\Python_RIS\metryki_porownywanie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029C381E-F52D-9A48-9A88-08AAE4BC99D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16040"/>
   </bookViews>
   <sheets>
     <sheet name="Przypadek_idealny" sheetId="7" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="22">
   <si>
     <t>Pattern</t>
   </si>
@@ -86,20 +85,20 @@
     <t>W tym przypadku moce w pliku1 to -30dBm a w pliku2 -80dBm</t>
   </si>
   <si>
-    <t xml:space="preserve">W tym przypadku moce odebrane na obu plikach są takie same. </t>
+    <t xml:space="preserve">Tutaj oba pliki miały moce odebrane  -80 dBm </t>
   </si>
   <si>
-    <t xml:space="preserve">Tutaj oba pliki miały takie same moce odebrane -30dBm </t>
+    <t xml:space="preserve">Tutaj oba porównywane pliki miały takie same moce odebrane: -30dBm </t>
   </si>
   <si>
-    <t xml:space="preserve">Tutaj oba pliki miały moce odebrane  -80 dBm </t>
+    <t>W tym przypadku moce odebrane na obu porównywanych plikach są takie same. (rzeczywisty pomiar - ten sam plik wgrany 2 razy)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,12 +134,24 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -170,15 +181,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -194,6 +206,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>467476</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17551400" y="1498600"/>
+          <a:ext cx="5382376" cy="1143160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>527808</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17564100" y="2616200"/>
+          <a:ext cx="5430008" cy="1038370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25402</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>540618</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Obraz 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17564102" y="3670301"/>
+          <a:ext cx="5442816" cy="4152899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,55 +611,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66418B98-A566-1241-8A7F-C0F4C167C805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="126.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="126.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:12">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2">
@@ -549,18 +680,18 @@
       <c r="G2">
         <v>5276.1340691461583</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:12">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3">
@@ -581,18 +712,18 @@
       <c r="G3">
         <v>5251.9100268661396</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:12">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4">
@@ -613,18 +744,18 @@
       <c r="G4">
         <v>5308.7961694239802</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:12">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5">
@@ -645,18 +776,18 @@
       <c r="G5">
         <v>5291.4859472277149</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:12">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -678,8 +809,8 @@
         <v>5243.6565160137106</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:12">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7">
@@ -701,8 +832,8 @@
         <v>5246.0045394441267</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:12">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8">
@@ -723,12 +854,12 @@
       <c r="G8">
         <v>5191.5504412444143</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="L8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9">
@@ -750,8 +881,8 @@
         <v>5202.2256621001252</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:12">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10">
@@ -773,8 +904,8 @@
         <v>5304.2327583285196</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:12">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11">
@@ -796,8 +927,8 @@
         <v>5268.5634248686883</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12">
@@ -819,8 +950,8 @@
         <v>5210.9746656120251</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:12">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13">
@@ -842,8 +973,8 @@
         <v>5220.3136188947292</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:12">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14">
@@ -865,8 +996,8 @@
         <v>5226.2520645193972</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:12">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15">
@@ -888,8 +1019,8 @@
         <v>5205.4834851355899</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:12">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16">
@@ -911,8 +1042,8 @@
         <v>5232.4967643419232</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:12">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17">
@@ -934,8 +1065,8 @@
         <v>5185.6943767462699</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:12">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18">
@@ -957,8 +1088,8 @@
         <v>5174.9807500982988</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:12">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19">
@@ -980,8 +1111,8 @@
         <v>5291.7073133219919</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:12">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1003,8 +1134,8 @@
         <v>5266.0777400080378</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:12">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1026,8 +1157,8 @@
         <v>5204.4192387542071</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:12">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1049,8 +1180,8 @@
         <v>5247.9698237055063</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:12">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1072,8 +1203,8 @@
         <v>5193.0167709651842</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:12">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1095,8 +1226,8 @@
         <v>5160.5891535931523</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:12">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1118,8 +1249,8 @@
         <v>5256.9630666262756</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:12">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1141,8 +1272,8 @@
         <v>5203.8795893225979</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:12">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1164,8 +1295,8 @@
         <v>5146.3367599380499</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:12">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1187,34 +1318,34 @@
         <v>5126.7030433348427</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:12">
+      <c r="A32" s="6">
         <v>1</v>
       </c>
       <c r="B32">
@@ -1236,8 +1367,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:7">
+      <c r="A33" s="6">
         <v>2</v>
       </c>
       <c r="B33">
@@ -1259,8 +1390,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="1:7">
+      <c r="A34" s="6">
         <v>3</v>
       </c>
       <c r="B34">
@@ -1282,8 +1413,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:7">
+      <c r="A35" s="6">
         <v>4</v>
       </c>
       <c r="B35">
@@ -1305,8 +1436,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" spans="1:7">
+      <c r="A36" s="6">
         <v>5</v>
       </c>
       <c r="B36">
@@ -1328,8 +1459,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="1:7">
+      <c r="A37" s="6">
         <v>6</v>
       </c>
       <c r="B37">
@@ -1351,8 +1482,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" spans="1:7">
+      <c r="A38" s="6">
         <v>7</v>
       </c>
       <c r="B38">
@@ -1374,8 +1505,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39" spans="1:7">
+      <c r="A39" s="6">
         <v>8</v>
       </c>
       <c r="B39">
@@ -1397,8 +1528,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="40" spans="1:7">
+      <c r="A40" s="6">
         <v>9</v>
       </c>
       <c r="B40">
@@ -1420,8 +1551,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41" spans="1:7">
+      <c r="A41" s="6">
         <v>10</v>
       </c>
       <c r="B41">
@@ -1443,8 +1574,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" spans="1:7">
+      <c r="A42" s="6">
         <v>11</v>
       </c>
       <c r="B42">
@@ -1466,8 +1597,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43" spans="1:7">
+      <c r="A43" s="6">
         <v>12</v>
       </c>
       <c r="B43">
@@ -1489,8 +1620,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44" spans="1:7">
+      <c r="A44" s="6">
         <v>13</v>
       </c>
       <c r="B44">
@@ -1512,8 +1643,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="45" spans="1:7">
+      <c r="A45" s="6">
         <v>14</v>
       </c>
       <c r="B45">
@@ -1535,8 +1666,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="46" spans="1:7">
+      <c r="A46" s="6">
         <v>15</v>
       </c>
       <c r="B46">
@@ -1558,8 +1689,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="47" spans="1:7">
+      <c r="A47" s="6">
         <v>16</v>
       </c>
       <c r="B47">
@@ -1581,8 +1712,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="48" spans="1:7">
+      <c r="A48" s="6">
         <v>17</v>
       </c>
       <c r="B48">
@@ -1604,8 +1735,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49" spans="1:12">
+      <c r="A49" s="6">
         <v>18</v>
       </c>
       <c r="B49">
@@ -1627,8 +1758,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50" spans="1:12">
+      <c r="A50" s="6">
         <v>19</v>
       </c>
       <c r="B50">
@@ -1650,8 +1781,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="51" spans="1:12">
+      <c r="A51" s="6">
         <v>20</v>
       </c>
       <c r="B51">
@@ -1673,8 +1804,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="52" spans="1:12">
+      <c r="A52" s="6">
         <v>21</v>
       </c>
       <c r="B52">
@@ -1696,8 +1827,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="53" spans="1:12">
+      <c r="A53" s="6">
         <v>22</v>
       </c>
       <c r="B53">
@@ -1719,8 +1850,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="54" spans="1:12">
+      <c r="A54" s="6">
         <v>23</v>
       </c>
       <c r="B54">
@@ -1742,8 +1873,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="55" spans="1:12">
+      <c r="A55" s="6">
         <v>24</v>
       </c>
       <c r="B55">
@@ -1765,8 +1896,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="56" spans="1:12">
+      <c r="A56" s="6">
         <v>25</v>
       </c>
       <c r="B56">
@@ -1788,8 +1919,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="57" spans="1:12">
+      <c r="A57" s="6">
         <v>26</v>
       </c>
       <c r="B57">
@@ -1811,8 +1942,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58">
+    <row r="58" spans="1:12">
+      <c r="A58" s="6">
         <v>27</v>
       </c>
       <c r="B58">
@@ -1834,34 +1965,34 @@
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:12">
+      <c r="A61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L61" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="L61" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="6">
         <v>1</v>
       </c>
       <c r="B62">
@@ -1883,8 +2014,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63">
+    <row r="63" spans="1:12">
+      <c r="A63" s="6">
         <v>2</v>
       </c>
       <c r="B63">
@@ -1906,8 +2037,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="64" spans="1:12">
+      <c r="A64" s="6">
         <v>3</v>
       </c>
       <c r="B64">
@@ -1929,8 +2060,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="65" spans="1:7">
+      <c r="A65" s="6">
         <v>4</v>
       </c>
       <c r="B65">
@@ -1952,8 +2083,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="66" spans="1:7">
+      <c r="A66" s="6">
         <v>5</v>
       </c>
       <c r="B66">
@@ -1975,8 +2106,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="67" spans="1:7">
+      <c r="A67" s="6">
         <v>6</v>
       </c>
       <c r="B67">
@@ -1998,8 +2129,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="68" spans="1:7">
+      <c r="A68" s="6">
         <v>7</v>
       </c>
       <c r="B68">
@@ -2021,8 +2152,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="69" spans="1:7">
+      <c r="A69" s="6">
         <v>8</v>
       </c>
       <c r="B69">
@@ -2044,8 +2175,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="70" spans="1:7">
+      <c r="A70" s="6">
         <v>9</v>
       </c>
       <c r="B70">
@@ -2067,8 +2198,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="71" spans="1:7">
+      <c r="A71" s="6">
         <v>10</v>
       </c>
       <c r="B71">
@@ -2090,8 +2221,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="72" spans="1:7">
+      <c r="A72" s="6">
         <v>11</v>
       </c>
       <c r="B72">
@@ -2113,8 +2244,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="73" spans="1:7">
+      <c r="A73" s="6">
         <v>12</v>
       </c>
       <c r="B73">
@@ -2136,8 +2267,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="74" spans="1:7">
+      <c r="A74" s="6">
         <v>13</v>
       </c>
       <c r="B74">
@@ -2159,8 +2290,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="75" spans="1:7">
+      <c r="A75" s="6">
         <v>14</v>
       </c>
       <c r="B75">
@@ -2182,8 +2313,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76">
+    <row r="76" spans="1:7">
+      <c r="A76" s="6">
         <v>15</v>
       </c>
       <c r="B76">
@@ -2205,8 +2336,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="77" spans="1:7">
+      <c r="A77" s="6">
         <v>16</v>
       </c>
       <c r="B77">
@@ -2228,8 +2359,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="78" spans="1:7">
+      <c r="A78" s="6">
         <v>17</v>
       </c>
       <c r="B78">
@@ -2251,8 +2382,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79">
+    <row r="79" spans="1:7">
+      <c r="A79" s="6">
         <v>18</v>
       </c>
       <c r="B79">
@@ -2274,8 +2405,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="80" spans="1:7">
+      <c r="A80" s="6">
         <v>19</v>
       </c>
       <c r="B80">
@@ -2297,8 +2428,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="81" spans="1:7">
+      <c r="A81" s="6">
         <v>20</v>
       </c>
       <c r="B81">
@@ -2320,8 +2451,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="82" spans="1:7">
+      <c r="A82" s="6">
         <v>21</v>
       </c>
       <c r="B82">
@@ -2343,8 +2474,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83">
+    <row r="83" spans="1:7">
+      <c r="A83" s="6">
         <v>22</v>
       </c>
       <c r="B83">
@@ -2366,8 +2497,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="84" spans="1:7">
+      <c r="A84" s="6">
         <v>23</v>
       </c>
       <c r="B84">
@@ -2389,8 +2520,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="85" spans="1:7">
+      <c r="A85" s="6">
         <v>24</v>
       </c>
       <c r="B85">
@@ -2412,8 +2543,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86">
+    <row r="86" spans="1:7">
+      <c r="A86" s="6">
         <v>25</v>
       </c>
       <c r="B86">
@@ -2435,8 +2566,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="87" spans="1:7">
+      <c r="A87" s="6">
         <v>26</v>
       </c>
       <c r="B87">
@@ -2458,8 +2589,8 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="88" spans="1:7">
+      <c r="A88" s="6">
         <v>27</v>
       </c>
       <c r="B88">
@@ -2483,59 +2614,61 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CFAE75-F157-724D-A078-62EE8629F77D}">
-  <dimension ref="A1:L96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J1" sqref="J1:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="126.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="139.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:12">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2556,18 +2689,18 @@
       <c r="G2">
         <v>2400</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:12">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3">
@@ -2588,18 +2721,18 @@
       <c r="G3">
         <v>2400</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:12">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4">
@@ -2620,18 +2753,18 @@
       <c r="G4">
         <v>2400</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:12">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5">
@@ -2652,18 +2785,18 @@
       <c r="G5">
         <v>2400</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:12">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2685,8 +2818,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:12">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2708,8 +2841,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:12">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2730,12 +2863,12 @@
       <c r="G8">
         <v>2400</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:12">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9">
@@ -2757,8 +2890,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:12">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10">
@@ -2780,8 +2913,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:12">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11">
@@ -2803,8 +2936,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2826,8 +2959,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:12">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2849,8 +2982,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:12">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2872,8 +3005,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:12">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2895,8 +3028,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:12">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2918,8 +3051,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2941,8 +3074,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2964,8 +3097,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2987,8 +3120,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20">
@@ -3010,8 +3143,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21">
@@ -3033,8 +3166,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3056,8 +3189,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3079,8 +3212,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24">
@@ -3102,8 +3235,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25">
@@ -3125,8 +3258,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26">
@@ -3148,8 +3281,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27">
@@ -3171,8 +3304,8 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28">
@@ -3191,1294 +3324,6 @@
         <v>2056320000</v>
       </c>
       <c r="G28">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>2500</v>
-      </c>
-      <c r="C39">
-        <v>50</v>
-      </c>
-      <c r="D39">
-        <v>892500</v>
-      </c>
-      <c r="E39">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F39">
-        <v>2056320000</v>
-      </c>
-      <c r="G39">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40">
-        <v>2500</v>
-      </c>
-      <c r="C40">
-        <v>50</v>
-      </c>
-      <c r="D40">
-        <v>892500</v>
-      </c>
-      <c r="E40">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F40">
-        <v>2056320000</v>
-      </c>
-      <c r="G40">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41">
-        <v>2500</v>
-      </c>
-      <c r="C41">
-        <v>50</v>
-      </c>
-      <c r="D41">
-        <v>892500</v>
-      </c>
-      <c r="E41">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F41">
-        <v>2056320000</v>
-      </c>
-      <c r="G41">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>4</v>
-      </c>
-      <c r="B42">
-        <v>2500</v>
-      </c>
-      <c r="C42">
-        <v>50</v>
-      </c>
-      <c r="D42">
-        <v>892500</v>
-      </c>
-      <c r="E42">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F42">
-        <v>2056320000</v>
-      </c>
-      <c r="G42">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>5</v>
-      </c>
-      <c r="B43">
-        <v>2500</v>
-      </c>
-      <c r="C43">
-        <v>50</v>
-      </c>
-      <c r="D43">
-        <v>892500</v>
-      </c>
-      <c r="E43">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F43">
-        <v>2056320000</v>
-      </c>
-      <c r="G43">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>6</v>
-      </c>
-      <c r="B44">
-        <v>2500</v>
-      </c>
-      <c r="C44">
-        <v>50</v>
-      </c>
-      <c r="D44">
-        <v>892500</v>
-      </c>
-      <c r="E44">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F44">
-        <v>2056320000</v>
-      </c>
-      <c r="G44">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>2500</v>
-      </c>
-      <c r="C45">
-        <v>50</v>
-      </c>
-      <c r="D45">
-        <v>892500</v>
-      </c>
-      <c r="E45">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F45">
-        <v>2056320000</v>
-      </c>
-      <c r="G45">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>8</v>
-      </c>
-      <c r="B46">
-        <v>2500</v>
-      </c>
-      <c r="C46">
-        <v>50</v>
-      </c>
-      <c r="D46">
-        <v>892500</v>
-      </c>
-      <c r="E46">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F46">
-        <v>2056320000</v>
-      </c>
-      <c r="G46">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>9</v>
-      </c>
-      <c r="B47">
-        <v>2500</v>
-      </c>
-      <c r="C47">
-        <v>50</v>
-      </c>
-      <c r="D47">
-        <v>892500</v>
-      </c>
-      <c r="E47">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F47">
-        <v>2056320000</v>
-      </c>
-      <c r="G47">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>10</v>
-      </c>
-      <c r="B48">
-        <v>2500</v>
-      </c>
-      <c r="C48">
-        <v>50</v>
-      </c>
-      <c r="D48">
-        <v>892500</v>
-      </c>
-      <c r="E48">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F48">
-        <v>2056320000</v>
-      </c>
-      <c r="G48">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="B49">
-        <v>2500</v>
-      </c>
-      <c r="C49">
-        <v>50</v>
-      </c>
-      <c r="D49">
-        <v>892500</v>
-      </c>
-      <c r="E49">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F49">
-        <v>2056320000</v>
-      </c>
-      <c r="G49">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50">
-        <v>2500</v>
-      </c>
-      <c r="C50">
-        <v>50</v>
-      </c>
-      <c r="D50">
-        <v>892500</v>
-      </c>
-      <c r="E50">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F50">
-        <v>2056320000</v>
-      </c>
-      <c r="G50">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>13</v>
-      </c>
-      <c r="B51">
-        <v>2500</v>
-      </c>
-      <c r="C51">
-        <v>50</v>
-      </c>
-      <c r="D51">
-        <v>892500</v>
-      </c>
-      <c r="E51">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F51">
-        <v>2056320000</v>
-      </c>
-      <c r="G51">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>14</v>
-      </c>
-      <c r="B52">
-        <v>2500</v>
-      </c>
-      <c r="C52">
-        <v>50</v>
-      </c>
-      <c r="D52">
-        <v>892500</v>
-      </c>
-      <c r="E52">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F52">
-        <v>2056320000</v>
-      </c>
-      <c r="G52">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>15</v>
-      </c>
-      <c r="B53">
-        <v>2500</v>
-      </c>
-      <c r="C53">
-        <v>50</v>
-      </c>
-      <c r="D53">
-        <v>892500</v>
-      </c>
-      <c r="E53">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F53">
-        <v>2056320000</v>
-      </c>
-      <c r="G53">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>16</v>
-      </c>
-      <c r="B54">
-        <v>2500</v>
-      </c>
-      <c r="C54">
-        <v>50</v>
-      </c>
-      <c r="D54">
-        <v>892500</v>
-      </c>
-      <c r="E54">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F54">
-        <v>2056320000</v>
-      </c>
-      <c r="G54">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>17</v>
-      </c>
-      <c r="B55">
-        <v>2500</v>
-      </c>
-      <c r="C55">
-        <v>50</v>
-      </c>
-      <c r="D55">
-        <v>892500</v>
-      </c>
-      <c r="E55">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F55">
-        <v>2056320000</v>
-      </c>
-      <c r="G55">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>18</v>
-      </c>
-      <c r="B56">
-        <v>2500</v>
-      </c>
-      <c r="C56">
-        <v>50</v>
-      </c>
-      <c r="D56">
-        <v>892500</v>
-      </c>
-      <c r="E56">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F56">
-        <v>2056320000</v>
-      </c>
-      <c r="G56">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>19</v>
-      </c>
-      <c r="B57">
-        <v>2500</v>
-      </c>
-      <c r="C57">
-        <v>50</v>
-      </c>
-      <c r="D57">
-        <v>892500</v>
-      </c>
-      <c r="E57">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F57">
-        <v>2056320000</v>
-      </c>
-      <c r="G57">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>20</v>
-      </c>
-      <c r="B58">
-        <v>2500</v>
-      </c>
-      <c r="C58">
-        <v>50</v>
-      </c>
-      <c r="D58">
-        <v>892500</v>
-      </c>
-      <c r="E58">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F58">
-        <v>2056320000</v>
-      </c>
-      <c r="G58">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>21</v>
-      </c>
-      <c r="B59">
-        <v>2500</v>
-      </c>
-      <c r="C59">
-        <v>50</v>
-      </c>
-      <c r="D59">
-        <v>892500</v>
-      </c>
-      <c r="E59">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F59">
-        <v>2056320000</v>
-      </c>
-      <c r="G59">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>22</v>
-      </c>
-      <c r="B60">
-        <v>2500</v>
-      </c>
-      <c r="C60">
-        <v>50</v>
-      </c>
-      <c r="D60">
-        <v>892500</v>
-      </c>
-      <c r="E60">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F60">
-        <v>2056320000</v>
-      </c>
-      <c r="G60">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>23</v>
-      </c>
-      <c r="B61">
-        <v>2500</v>
-      </c>
-      <c r="C61">
-        <v>50</v>
-      </c>
-      <c r="D61">
-        <v>892500</v>
-      </c>
-      <c r="E61">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F61">
-        <v>2056320000</v>
-      </c>
-      <c r="G61">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>24</v>
-      </c>
-      <c r="B62">
-        <v>2500</v>
-      </c>
-      <c r="C62">
-        <v>50</v>
-      </c>
-      <c r="D62">
-        <v>892500</v>
-      </c>
-      <c r="E62">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F62">
-        <v>2056320000</v>
-      </c>
-      <c r="G62">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>25</v>
-      </c>
-      <c r="B63">
-        <v>2500</v>
-      </c>
-      <c r="C63">
-        <v>50</v>
-      </c>
-      <c r="D63">
-        <v>892500</v>
-      </c>
-      <c r="E63">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F63">
-        <v>2056320000</v>
-      </c>
-      <c r="G63">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>26</v>
-      </c>
-      <c r="B64">
-        <v>2500</v>
-      </c>
-      <c r="C64">
-        <v>50</v>
-      </c>
-      <c r="D64">
-        <v>892500</v>
-      </c>
-      <c r="E64">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F64">
-        <v>2056320000</v>
-      </c>
-      <c r="G64">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>27</v>
-      </c>
-      <c r="B65">
-        <v>2500</v>
-      </c>
-      <c r="C65">
-        <v>50</v>
-      </c>
-      <c r="D65">
-        <v>892500</v>
-      </c>
-      <c r="E65">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F65">
-        <v>2056320000</v>
-      </c>
-      <c r="G65">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70">
-        <v>2500</v>
-      </c>
-      <c r="C70">
-        <v>50</v>
-      </c>
-      <c r="D70">
-        <v>892500</v>
-      </c>
-      <c r="E70">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F70">
-        <v>2056320000</v>
-      </c>
-      <c r="G70">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71">
-        <v>2500</v>
-      </c>
-      <c r="C71">
-        <v>50</v>
-      </c>
-      <c r="D71">
-        <v>892500</v>
-      </c>
-      <c r="E71">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F71">
-        <v>2056320000</v>
-      </c>
-      <c r="G71">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>3</v>
-      </c>
-      <c r="B72">
-        <v>2500</v>
-      </c>
-      <c r="C72">
-        <v>50</v>
-      </c>
-      <c r="D72">
-        <v>892500</v>
-      </c>
-      <c r="E72">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F72">
-        <v>2056320000</v>
-      </c>
-      <c r="G72">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>4</v>
-      </c>
-      <c r="B73">
-        <v>2500</v>
-      </c>
-      <c r="C73">
-        <v>50</v>
-      </c>
-      <c r="D73">
-        <v>892500</v>
-      </c>
-      <c r="E73">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F73">
-        <v>2056320000</v>
-      </c>
-      <c r="G73">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>5</v>
-      </c>
-      <c r="B74">
-        <v>2500</v>
-      </c>
-      <c r="C74">
-        <v>50</v>
-      </c>
-      <c r="D74">
-        <v>892500</v>
-      </c>
-      <c r="E74">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F74">
-        <v>2056320000</v>
-      </c>
-      <c r="G74">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>6</v>
-      </c>
-      <c r="B75">
-        <v>2500</v>
-      </c>
-      <c r="C75">
-        <v>50</v>
-      </c>
-      <c r="D75">
-        <v>892500</v>
-      </c>
-      <c r="E75">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F75">
-        <v>2056320000</v>
-      </c>
-      <c r="G75">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>7</v>
-      </c>
-      <c r="B76">
-        <v>2500</v>
-      </c>
-      <c r="C76">
-        <v>50</v>
-      </c>
-      <c r="D76">
-        <v>892500</v>
-      </c>
-      <c r="E76">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F76">
-        <v>2056320000</v>
-      </c>
-      <c r="G76">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>8</v>
-      </c>
-      <c r="B77">
-        <v>2500</v>
-      </c>
-      <c r="C77">
-        <v>50</v>
-      </c>
-      <c r="D77">
-        <v>892500</v>
-      </c>
-      <c r="E77">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F77">
-        <v>2056320000</v>
-      </c>
-      <c r="G77">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>9</v>
-      </c>
-      <c r="B78">
-        <v>2500</v>
-      </c>
-      <c r="C78">
-        <v>50</v>
-      </c>
-      <c r="D78">
-        <v>892500</v>
-      </c>
-      <c r="E78">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F78">
-        <v>2056320000</v>
-      </c>
-      <c r="G78">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>10</v>
-      </c>
-      <c r="B79">
-        <v>2500</v>
-      </c>
-      <c r="C79">
-        <v>50</v>
-      </c>
-      <c r="D79">
-        <v>892500</v>
-      </c>
-      <c r="E79">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F79">
-        <v>2056320000</v>
-      </c>
-      <c r="G79">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>11</v>
-      </c>
-      <c r="B80">
-        <v>2500</v>
-      </c>
-      <c r="C80">
-        <v>50</v>
-      </c>
-      <c r="D80">
-        <v>892500</v>
-      </c>
-      <c r="E80">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F80">
-        <v>2056320000</v>
-      </c>
-      <c r="G80">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>12</v>
-      </c>
-      <c r="B81">
-        <v>2500</v>
-      </c>
-      <c r="C81">
-        <v>50</v>
-      </c>
-      <c r="D81">
-        <v>892500</v>
-      </c>
-      <c r="E81">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F81">
-        <v>2056320000</v>
-      </c>
-      <c r="G81">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>13</v>
-      </c>
-      <c r="B82">
-        <v>2500</v>
-      </c>
-      <c r="C82">
-        <v>50</v>
-      </c>
-      <c r="D82">
-        <v>892500</v>
-      </c>
-      <c r="E82">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F82">
-        <v>2056320000</v>
-      </c>
-      <c r="G82">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>14</v>
-      </c>
-      <c r="B83">
-        <v>2500</v>
-      </c>
-      <c r="C83">
-        <v>50</v>
-      </c>
-      <c r="D83">
-        <v>892500</v>
-      </c>
-      <c r="E83">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F83">
-        <v>2056320000</v>
-      </c>
-      <c r="G83">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>15</v>
-      </c>
-      <c r="B84">
-        <v>2500</v>
-      </c>
-      <c r="C84">
-        <v>50</v>
-      </c>
-      <c r="D84">
-        <v>892500</v>
-      </c>
-      <c r="E84">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F84">
-        <v>2056320000</v>
-      </c>
-      <c r="G84">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>16</v>
-      </c>
-      <c r="B85">
-        <v>2500</v>
-      </c>
-      <c r="C85">
-        <v>50</v>
-      </c>
-      <c r="D85">
-        <v>892500</v>
-      </c>
-      <c r="E85">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F85">
-        <v>2056320000</v>
-      </c>
-      <c r="G85">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>17</v>
-      </c>
-      <c r="B86">
-        <v>2500</v>
-      </c>
-      <c r="C86">
-        <v>50</v>
-      </c>
-      <c r="D86">
-        <v>892500</v>
-      </c>
-      <c r="E86">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F86">
-        <v>2056320000</v>
-      </c>
-      <c r="G86">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>18</v>
-      </c>
-      <c r="B87">
-        <v>2500</v>
-      </c>
-      <c r="C87">
-        <v>50</v>
-      </c>
-      <c r="D87">
-        <v>892500</v>
-      </c>
-      <c r="E87">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F87">
-        <v>2056320000</v>
-      </c>
-      <c r="G87">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>19</v>
-      </c>
-      <c r="B88">
-        <v>2500</v>
-      </c>
-      <c r="C88">
-        <v>50</v>
-      </c>
-      <c r="D88">
-        <v>892500</v>
-      </c>
-      <c r="E88">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F88">
-        <v>2056320000</v>
-      </c>
-      <c r="G88">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>20</v>
-      </c>
-      <c r="B89">
-        <v>2500</v>
-      </c>
-      <c r="C89">
-        <v>50</v>
-      </c>
-      <c r="D89">
-        <v>892500</v>
-      </c>
-      <c r="E89">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F89">
-        <v>2056320000</v>
-      </c>
-      <c r="G89">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>21</v>
-      </c>
-      <c r="B90">
-        <v>2500</v>
-      </c>
-      <c r="C90">
-        <v>50</v>
-      </c>
-      <c r="D90">
-        <v>892500</v>
-      </c>
-      <c r="E90">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F90">
-        <v>2056320000</v>
-      </c>
-      <c r="G90">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>22</v>
-      </c>
-      <c r="B91">
-        <v>2500</v>
-      </c>
-      <c r="C91">
-        <v>50</v>
-      </c>
-      <c r="D91">
-        <v>892500</v>
-      </c>
-      <c r="E91">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F91">
-        <v>2056320000</v>
-      </c>
-      <c r="G91">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>23</v>
-      </c>
-      <c r="B92">
-        <v>2500</v>
-      </c>
-      <c r="C92">
-        <v>50</v>
-      </c>
-      <c r="D92">
-        <v>892500</v>
-      </c>
-      <c r="E92">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F92">
-        <v>2056320000</v>
-      </c>
-      <c r="G92">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>24</v>
-      </c>
-      <c r="B93">
-        <v>2500</v>
-      </c>
-      <c r="C93">
-        <v>50</v>
-      </c>
-      <c r="D93">
-        <v>892500</v>
-      </c>
-      <c r="E93">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F93">
-        <v>2056320000</v>
-      </c>
-      <c r="G93">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>25</v>
-      </c>
-      <c r="B94">
-        <v>2500</v>
-      </c>
-      <c r="C94">
-        <v>50</v>
-      </c>
-      <c r="D94">
-        <v>892500</v>
-      </c>
-      <c r="E94">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F94">
-        <v>2056320000</v>
-      </c>
-      <c r="G94">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>26</v>
-      </c>
-      <c r="B95">
-        <v>2500</v>
-      </c>
-      <c r="C95">
-        <v>50</v>
-      </c>
-      <c r="D95">
-        <v>892500</v>
-      </c>
-      <c r="E95">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F95">
-        <v>2056320000</v>
-      </c>
-      <c r="G95">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>27</v>
-      </c>
-      <c r="B96">
-        <v>2500</v>
-      </c>
-      <c r="C96">
-        <v>50</v>
-      </c>
-      <c r="D96">
-        <v>892500</v>
-      </c>
-      <c r="E96">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F96">
-        <v>2056320000</v>
-      </c>
-      <c r="G96">
         <v>2400</v>
       </c>
     </row>
@@ -4488,57 +3333,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J1" sqref="J1:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="126.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="139.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:12">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2">
@@ -4559,18 +3405,18 @@
       <c r="G2">
         <v>4618.5797481937543</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:12">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3">
@@ -4591,18 +3437,18 @@
       <c r="G3">
         <v>4757.2603060001029</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:12">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4">
@@ -4623,18 +3469,18 @@
       <c r="G4">
         <v>4619.1852721848118</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:12">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5">
@@ -4655,18 +3501,18 @@
       <c r="G5">
         <v>4622.6994378473928</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:12">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -4688,8 +3534,8 @@
         <v>4696.8973423467651</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:12">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7">
@@ -4711,8 +3557,8 @@
         <v>4637.0044429124946</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:12">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8">
@@ -4734,8 +3580,8 @@
         <v>4643.5975163074872</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:12">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9">
@@ -4757,8 +3603,8 @@
         <v>4591.8373034135566</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:12">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10">
@@ -4780,8 +3626,8 @@
         <v>4760.3681473342567</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:12">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11">
@@ -4803,8 +3649,8 @@
         <v>4716.6135533078068</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12">
@@ -4826,8 +3672,8 @@
         <v>4645.0235114485977</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:12">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13">
@@ -4849,8 +3695,8 @@
         <v>4646.0685059953266</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:12">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14">
@@ -4872,8 +3718,8 @@
         <v>4669.4640903271511</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:12">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15">
@@ -4895,8 +3741,8 @@
         <v>4653.5137598651154</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:12">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16">
@@ -4918,8 +3764,8 @@
         <v>4574.8462096474914</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17">
@@ -4941,8 +3787,8 @@
         <v>4550.8043142476572</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18">
@@ -4964,8 +3810,8 @@
         <v>4618.0254557896596</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19">
@@ -4987,8 +3833,8 @@
         <v>4608.0114629827422</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20">
@@ -5010,8 +3856,8 @@
         <v>4548.0298431215269</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21">
@@ -5033,8 +3879,8 @@
         <v>4525.3187922298366</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22">
@@ -5056,8 +3902,8 @@
         <v>4636.1097801046599</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23">
@@ -5079,8 +3925,8 @@
         <v>4465.7274814028078</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24">
@@ -5102,8 +3948,8 @@
         <v>4503.5598748029934</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25">
@@ -5125,8 +3971,8 @@
         <v>4513.1135786667046</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26">
@@ -5148,8 +3994,8 @@
         <v>4530.4463751311296</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27">
@@ -5171,8 +4017,8 @@
         <v>4554.3072099474139</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28">
@@ -5200,40 +4046,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026E4EEC-6CC6-6348-84B2-EA3FB1DE8836}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="J1" sqref="J1:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="139.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2">
@@ -5254,9 +4115,18 @@
       <c r="G2">
         <v>4635.7732897177084</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3">
@@ -5277,9 +4147,18 @@
       <c r="G3">
         <v>4656.3267900950013</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4">
@@ -5300,9 +4179,18 @@
       <c r="G4">
         <v>4670.0435020571986</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5">
@@ -5323,9 +4211,18 @@
       <c r="G5">
         <v>4666.9645439774686</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -5347,8 +4244,8 @@
         <v>4602.6518108960427</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:12">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7">
@@ -5370,8 +4267,8 @@
         <v>4611.0879467770546</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:12">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8">
@@ -5393,8 +4290,8 @@
         <v>4605.7703090651521</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:12">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9">
@@ -5416,8 +4313,8 @@
         <v>4655.5133384640603</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:12">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10">
@@ -5439,8 +4336,8 @@
         <v>4700.1877304206864</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:12">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11">
@@ -5462,8 +4359,8 @@
         <v>4654.850057010297</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12">
@@ -5485,8 +4382,8 @@
         <v>4628.1722014970983</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:12">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13">
@@ -5508,8 +4405,8 @@
         <v>4673.8268480912411</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:12">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14">
@@ -5531,8 +4428,8 @@
         <v>4657.2292596800953</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:12">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15">
@@ -5554,8 +4451,8 @@
         <v>4654.7457600872413</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:12">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16">
@@ -5577,8 +4474,8 @@
         <v>4625.8829503670859</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17">
@@ -5600,8 +4497,8 @@
         <v>4542.050167278996</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18">
@@ -5623,8 +4520,8 @@
         <v>4570.8389366994097</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19">
@@ -5646,8 +4543,8 @@
         <v>4572.0187102439777</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20">
@@ -5669,8 +4566,8 @@
         <v>4557.8893299193514</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21">
@@ -5692,8 +4589,8 @@
         <v>4630.5894975946467</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22">
@@ -5715,8 +4612,8 @@
         <v>4673.7234230689182</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23">
@@ -5738,8 +4635,8 @@
         <v>4556.3085892845302</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24">
@@ -5761,8 +4658,8 @@
         <v>4486.3034215363868</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25">
@@ -5784,8 +4681,8 @@
         <v>4462.1420985925306</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26">
@@ -5807,8 +4704,8 @@
         <v>4541.7875560186694</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27">
@@ -5830,8 +4727,8 @@
         <v>4593.1112750053398</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28">
@@ -5859,40 +4756,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E704B58D-6420-1E42-86AD-D07BE8D3A93C}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="139.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2">
@@ -5913,9 +4825,18 @@
       <c r="G2">
         <v>4799.3205254286931</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3">
@@ -5936,9 +4857,18 @@
       <c r="G3">
         <v>4850.1359300913</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4">
@@ -5959,9 +4889,18 @@
       <c r="G4">
         <v>4818.1546212556304</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5">
@@ -5982,9 +4921,18 @@
       <c r="G5">
         <v>4799.8998914080221</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -6006,8 +4954,8 @@
         <v>4779.4771533163621</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:12">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7">
@@ -6029,8 +4977,8 @@
         <v>4806.3237344836416</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:12">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8">
@@ -6052,8 +5000,8 @@
         <v>4786.8614726888254</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:12">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9">
@@ -6075,8 +5023,8 @@
         <v>4766.4520218940306</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:12">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10">
@@ -6098,8 +5046,8 @@
         <v>4843.5872278218658</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:12">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11">
@@ -6121,8 +5069,8 @@
         <v>4797.9322912316711</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12">
@@ -6144,8 +5092,8 @@
         <v>4833.107098652511</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:12">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13">
@@ -6167,8 +5115,8 @@
         <v>4824.6508973340888</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:12">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14">
@@ -6190,8 +5138,8 @@
         <v>4831.2304431808834</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:12">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15">
@@ -6213,8 +5161,8 @@
         <v>4819.5541757821929</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:12">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16">
@@ -6236,8 +5184,8 @@
         <v>4743.9108232008994</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17">
@@ -6259,8 +5207,8 @@
         <v>4776.9013605869004</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18">
@@ -6282,8 +5230,8 @@
         <v>4758.3176117375333</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19">
@@ -6305,8 +5253,8 @@
         <v>4737.0254778431972</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20">
@@ -6328,8 +5276,8 @@
         <v>4807.052840952445</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21">
@@ -6351,8 +5299,8 @@
         <v>4759.9431208817241</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22">
@@ -6374,8 +5322,8 @@
         <v>4782.7373096374613</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23">
@@ -6397,8 +5345,8 @@
         <v>4752.8269381070213</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24">
@@ -6420,8 +5368,8 @@
         <v>4736.6411714226624</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25">
@@ -6443,8 +5391,8 @@
         <v>4676.4818308331642</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26">
@@ -6466,8 +5414,8 @@
         <v>4703.9522761931312</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27">
@@ -6489,8 +5437,8 @@
         <v>4703.6164633357675</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28">
@@ -6518,40 +5466,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AC675B-C02A-EA44-970E-7C58E476B8DE}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="J1" sqref="J1:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="139.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2">
@@ -6572,9 +5535,18 @@
       <c r="G2">
         <v>4898.7947955510999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3">
@@ -6595,9 +5567,18 @@
       <c r="G3">
         <v>4932.6249546102099</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4">
@@ -6618,9 +5599,18 @@
       <c r="G4">
         <v>4907.2100080043183</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5">
@@ -6641,9 +5631,18 @@
       <c r="G5">
         <v>4907.9629099236718</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -6665,8 +5664,8 @@
         <v>4902.8734661229064</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:12">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7">
@@ -6688,8 +5687,8 @@
         <v>4899.4540501730671</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:12">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8">
@@ -6711,8 +5710,8 @@
         <v>4891.6408945415351</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:12">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9">
@@ -6734,8 +5733,8 @@
         <v>4875.787747277298</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:12">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10">
@@ -6757,8 +5756,8 @@
         <v>4929.1601064986226</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:12">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11">
@@ -6780,8 +5779,8 @@
         <v>4954.0367245677407</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12">
@@ -6803,8 +5802,8 @@
         <v>4912.5347921654356</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:12">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13">
@@ -6826,8 +5825,8 @@
         <v>4905.7259526798753</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:12">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14">
@@ -6849,8 +5848,8 @@
         <v>4915.1322257895981</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:12">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15">
@@ -6872,8 +5871,8 @@
         <v>4913.2585858731873</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:12">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16">
@@ -6895,8 +5894,8 @@
         <v>4891.9363071850439</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17">
@@ -6918,8 +5917,8 @@
         <v>4841.7411217922099</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18">
@@ -6941,8 +5940,8 @@
         <v>4864.4820029726043</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19">
@@ -6964,8 +5963,8 @@
         <v>4921.3701423429166</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20">
@@ -6987,8 +5986,8 @@
         <v>4880.2838994681142</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21">
@@ -7010,8 +6009,8 @@
         <v>4877.1369973680894</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22">
@@ -7033,8 +6032,8 @@
         <v>4906.6692925870238</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23">
@@ -7056,8 +6055,8 @@
         <v>4841.3568543932033</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24">
@@ -7079,8 +6078,8 @@
         <v>4851.7729253521647</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25">
@@ -7102,8 +6101,8 @@
         <v>4885.3654781469386</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26">
@@ -7125,8 +6124,8 @@
         <v>4874.5452015406363</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27">
@@ -7148,8 +6147,8 @@
         <v>4900.0571795594178</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28">
@@ -7177,40 +6176,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF6E03A-F98C-914A-BDEA-46D84952CD42}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J1" sqref="J1:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="139.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2">
@@ -7231,9 +6245,18 @@
       <c r="G2">
         <v>4830.3243395323743</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3">
@@ -7254,9 +6277,18 @@
       <c r="G3">
         <v>4854.0789138924574</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4">
@@ -7277,9 +6309,18 @@
       <c r="G4">
         <v>4843.2712608686443</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5">
@@ -7300,9 +6341,18 @@
       <c r="G5">
         <v>4853.3937385313311</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -7324,8 +6374,8 @@
         <v>4844.4734624384382</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:12">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7">
@@ -7347,8 +6397,8 @@
         <v>4825.3168719226242</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:12">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8">
@@ -7370,8 +6420,8 @@
         <v>4821.3728496997128</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:12">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9">
@@ -7393,8 +6443,8 @@
         <v>4874.77967710132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:12">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10">
@@ -7416,8 +6466,8 @@
         <v>4899.5578676960658</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:12">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11">
@@ -7439,8 +6489,8 @@
         <v>4859.7384411076646</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12">
@@ -7462,8 +6512,8 @@
         <v>4868.3263979161566</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:12">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13">
@@ -7485,8 +6535,8 @@
         <v>4879.6587077949443</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:12">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14">
@@ -7508,8 +6558,8 @@
         <v>4879.017481482837</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:12">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15">
@@ -7531,8 +6581,8 @@
         <v>4883.3242608213532</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:12">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16">
@@ -7554,8 +6604,8 @@
         <v>4814.0002090376374</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17">
@@ -7577,8 +6627,8 @@
         <v>4813.5979488340672</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18">
@@ -7600,8 +6650,8 @@
         <v>4798.7089873887644</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19">
@@ -7623,8 +6673,8 @@
         <v>4858.9460899284368</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20">
@@ -7646,8 +6696,8 @@
         <v>4842.9130363770773</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21">
@@ -7669,8 +6719,8 @@
         <v>4914.9468253567529</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22">
@@ -7692,8 +6742,8 @@
         <v>4907.2910326119727</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23">
@@ -7715,8 +6765,8 @@
         <v>4792.5459314052832</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24">
@@ -7738,8 +6788,8 @@
         <v>4812.7798276785988</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25">
@@ -7761,8 +6811,8 @@
         <v>4786.1182997633186</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26">
@@ -7784,8 +6834,8 @@
         <v>4840.60017388693</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27">
@@ -7807,8 +6857,8 @@
         <v>4857.7458808435113</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28">
@@ -7836,40 +6886,55 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5C67EE-3E6E-F147-B360-22D732872280}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="139.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2">
@@ -7890,9 +6955,18 @@
       <c r="G2">
         <v>5550.8025897964953</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3">
@@ -7913,9 +6987,18 @@
       <c r="G3">
         <v>5553.7675960390834</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4">
@@ -7936,9 +7019,18 @@
       <c r="G4">
         <v>5565.4307589072669</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5">
@@ -7959,9 +7051,18 @@
       <c r="G5">
         <v>5548.0773407236748</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -7983,8 +7084,8 @@
         <v>5511.156888808001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:12">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7">
@@ -8006,8 +7107,8 @@
         <v>5525.1636655282036</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:12">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8">
@@ -8029,8 +7130,8 @@
         <v>5523.9434383302541</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:12">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9">
@@ -8052,8 +7153,8 @@
         <v>5523.4107149045922</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:12">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10">
@@ -8075,8 +7176,8 @@
         <v>5562.514258837301</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:12">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11">
@@ -8098,8 +7199,8 @@
         <v>5566.1329986035116</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12">
@@ -8121,8 +7222,8 @@
         <v>5576.7247203114721</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:12">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13">
@@ -8144,8 +7245,8 @@
         <v>5573.0584569723451</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:12">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14">
@@ -8167,8 +7268,8 @@
         <v>5572.7266800645348</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:12">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15">
@@ -8190,8 +7291,8 @@
         <v>5562.9183856202808</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:12">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16">
@@ -8213,8 +7314,8 @@
         <v>5515.0392250029472</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17">
@@ -8236,8 +7337,8 @@
         <v>5518.9760515343251</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18">
@@ -8259,8 +7360,8 @@
         <v>5494.5695660730562</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19">
@@ -8282,8 +7383,8 @@
         <v>5504.2384376157988</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20">
@@ -8305,8 +7406,8 @@
         <v>5534.9675544819111</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21">
@@ -8328,8 +7429,8 @@
         <v>5551.8715485486227</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22">
@@ -8351,8 +7452,8 @@
         <v>5594.9001506234808</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23">
@@ -8374,8 +7475,8 @@
         <v>5515.7164195613104</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24">
@@ -8397,8 +7498,8 @@
         <v>5503.2766787360069</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25">
@@ -8420,8 +7521,8 @@
         <v>5508.7311496106668</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26">
@@ -8443,8 +7544,8 @@
         <v>5464.0422915674453</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27">
@@ -8466,8 +7567,8 @@
         <v>5498.9374632694035</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28">
